--- a/REGULAR/MAYORS OFFICE/DOLOT, JESUS JR..xlsx
+++ b/REGULAR/MAYORS OFFICE/DOLOT, JESUS JR..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="466">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1423,6 +1423,15 @@
   </si>
   <si>
     <t>12/14,20,27-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1/11,12/2024</t>
+  </si>
+  <si>
+    <t>1/8-10/2024</t>
   </si>
 </sst>
 </file>
@@ -3880,7 +3889,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K1183" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K1185" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4258,12 +4267,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K1183"/>
+  <dimension ref="A2:K1185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A620" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K633" sqref="K633"/>
+      <selection pane="bottomLeft" activeCell="K636" sqref="K636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4428,7 +4437,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.51099999999991041</v>
+        <v>1.7609999999999104</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4438,7 +4447,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>101.375</v>
+        <v>100.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18193,15 +18202,17 @@
       <c r="B633" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C633" s="13"/>
+      <c r="C633" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D633" s="39">
         <v>5</v>
       </c>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G633" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
@@ -18211,8 +18222,8 @@
       </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A634" s="40">
-        <v>45292</v>
+      <c r="A634" s="48" t="s">
+        <v>463</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18230,9 +18241,11 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B635" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B635" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C635" s="13"/>
       <c r="D635" s="39"/>
       <c r="E635" s="9"/>
@@ -18241,16 +18254,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H635" s="39"/>
+      <c r="H635" s="39">
+        <v>2</v>
+      </c>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20"/>
+      <c r="K635" s="20" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B636" s="20"/>
+      <c r="A636" s="40"/>
+      <c r="B636" s="20" t="s">
+        <v>430</v>
+      </c>
       <c r="C636" s="13"/>
       <c r="D636" s="39"/>
       <c r="E636" s="9"/>
@@ -18262,11 +18279,13 @@
       <c r="H636" s="39"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="20"/>
+      <c r="K636" s="20" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18284,7 +18303,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18302,7 +18321,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18319,7 +18338,9 @@
       <c r="K639" s="20"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="40"/>
+      <c r="A640" s="40">
+        <v>45413</v>
+      </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
       <c r="D640" s="39"/>
@@ -18335,7 +18356,9 @@
       <c r="K640" s="20"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="40"/>
+      <c r="A641" s="40">
+        <v>45444</v>
+      </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
       <c r="D641" s="39"/>
@@ -27021,6 +27044,38 @@
       <c r="I1183" s="9"/>
       <c r="J1183" s="11"/>
       <c r="K1183" s="20"/>
+    </row>
+    <row r="1184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1184" s="40"/>
+      <c r="B1184" s="20"/>
+      <c r="C1184" s="13"/>
+      <c r="D1184" s="39"/>
+      <c r="E1184" s="9"/>
+      <c r="F1184" s="20"/>
+      <c r="G1184" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1184" s="39"/>
+      <c r="I1184" s="9"/>
+      <c r="J1184" s="11"/>
+      <c r="K1184" s="20"/>
+    </row>
+    <row r="1185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1185" s="40"/>
+      <c r="B1185" s="20"/>
+      <c r="C1185" s="13"/>
+      <c r="D1185" s="39"/>
+      <c r="E1185" s="9"/>
+      <c r="F1185" s="20"/>
+      <c r="G1185" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1185" s="39"/>
+      <c r="I1185" s="9"/>
+      <c r="J1185" s="11"/>
+      <c r="K1185" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -27197,7 +27252,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>101.88599999999991</v>
+        <v>102.38599999999991</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/MAYORS OFFICE/DOLOT, JESUS JR..xlsx
+++ b/REGULAR/MAYORS OFFICE/DOLOT, JESUS JR..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="466">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2354,7 +2354,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2397,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2461,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2521,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2587,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2650,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2748,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2807,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2872,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2915,7 +2915,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,7 +2990,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3176,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3242,7 +3242,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3300,7 +3300,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3366,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3422,7 +3422,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,7 +3497,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,7 +3540,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,7 +3606,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3662,7 +3662,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,7 +3760,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3823,7 +3823,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4272,7 +4272,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A620" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K636" sqref="K636"/>
+      <selection pane="bottomLeft" activeCell="F636" sqref="F636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4437,7 +4437,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.7609999999999104</v>
+        <v>3.0109999999999104</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4447,7 +4447,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>100.625</v>
+        <v>100.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18246,13 +18246,15 @@
       <c r="B635" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C635" s="13"/>
+      <c r="C635" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D635" s="39"/>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G635" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H635" s="39">
         <v>2</v>
@@ -18287,7 +18289,9 @@
       <c r="A637" s="40">
         <v>45323</v>
       </c>
-      <c r="B637" s="20"/>
+      <c r="B637" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C637" s="13"/>
       <c r="D637" s="39"/>
       <c r="E637" s="9"/>
@@ -18296,10 +18300,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H637" s="39"/>
+      <c r="H637" s="39">
+        <v>1</v>
+      </c>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
+      <c r="K637" s="49">
+        <v>45322</v>
+      </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
@@ -27252,7 +27260,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>102.38599999999991</v>
+        <v>103.88599999999991</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
